--- a/Sequencing1.xlsx
+++ b/Sequencing1.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etinoelle/PycharmProjects/InputDataGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2898A1-AF5A-7C49-9FB2-9B945176A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75B34C-8F13-4040-BB38-D90B63BE1C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="27240" windowHeight="15240" activeTab="1" xr2:uid="{B00693D6-69C8-1348-A630-1FE557033CC4}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="27240" windowHeight="15240" activeTab="2" xr2:uid="{B00693D6-69C8-1348-A630-1FE557033CC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sequence1-Batch" sheetId="1" r:id="rId1"/>
+    <sheet name="Sequence1-Optimal" sheetId="1" r:id="rId1"/>
     <sheet name="Sequence2-Min Avg" sheetId="2" r:id="rId2"/>
-    <sheet name="Sequence3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sequence3-Random" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sequence2-Min Avg'!$B$2:$B$254</definedName>
-    <definedName name="lookup">Sequence3!$E$2:$F$4</definedName>
+    <definedName name="lookup">'Sequence3-Random'!$D$2:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="8">
-  <si>
-    <t>Space</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="5">
   <si>
     <t>E</t>
   </si>
@@ -52,12 +49,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Bike Type</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>pos</t>
@@ -85,7 +76,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,14 +89,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,30 +98,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,25 +431,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -488,87 +457,87 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -576,55 +545,55 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -632,7 +601,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -640,15 +609,15 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +625,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -664,39 +633,39 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -704,55 +673,55 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -760,15 +729,15 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -776,55 +745,55 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -832,7 +801,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -840,31 +809,31 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -872,447 +841,447 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>3</v>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>3</v>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>3</v>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
+      <c r="B63" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>3</v>
+      <c r="B64" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>3</v>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>3</v>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>3</v>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
+      <c r="B71" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>3</v>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>3</v>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>3</v>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>3</v>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>3</v>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>3</v>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>3</v>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>3</v>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>3</v>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>3</v>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>3</v>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
+      <c r="B91" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>3</v>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>3</v>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>3</v>
+      <c r="B95" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
+      <c r="B96" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
+      <c r="B99" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
+      <c r="B104" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
+      <c r="B106" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1320,63 +1289,63 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>2</v>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>2</v>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>2</v>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>2</v>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>2</v>
+      <c r="B112" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>2</v>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>2</v>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1384,7 +1353,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1392,7 +1361,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1400,7 +1369,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1408,7 +1377,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1416,7 +1385,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1424,7 +1393,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1432,7 +1401,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1440,15 +1409,15 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>2</v>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1456,7 +1425,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1464,7 +1433,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1472,7 +1441,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1480,7 +1449,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1488,7 +1457,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1496,23 +1465,23 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>2</v>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>2</v>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1520,23 +1489,23 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>2</v>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>2</v>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1544,7 +1513,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1552,7 +1521,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1560,31 +1529,31 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>2</v>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>2</v>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>2</v>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1592,7 +1561,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1600,23 +1569,23 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
-        <v>2</v>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
-        <v>2</v>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1624,15 +1593,15 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
-        <v>2</v>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1640,31 +1609,31 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>2</v>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
-        <v>2</v>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
-        <v>2</v>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1672,7 +1641,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1680,792 +1649,792 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>2</v>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>2</v>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>2</v>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>2</v>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>2</v>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>2</v>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>2</v>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>2</v>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>2</v>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>2</v>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>2</v>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>2</v>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>2</v>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>2</v>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>2</v>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>2</v>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>2</v>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>2</v>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>2</v>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>2</v>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>2</v>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>2</v>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>2</v>
+      <c r="B175" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>2</v>
+      <c r="B176" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>2</v>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>2</v>
+      <c r="B178" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>2</v>
+      <c r="B179" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>2</v>
+      <c r="B180" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>2</v>
+      <c r="B181" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>2</v>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>2</v>
+      <c r="B183" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>2</v>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>2</v>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>2</v>
+      <c r="B186" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>2</v>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>2</v>
+      <c r="B188" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>2</v>
+      <c r="B189" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>2</v>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>2</v>
+      <c r="B191" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>2</v>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>2</v>
+      <c r="B193" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>2</v>
+      <c r="B194" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>2</v>
+      <c r="B195" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>2</v>
+      <c r="B196" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>2</v>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>2</v>
+      <c r="B198" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>2</v>
+      <c r="B199" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>2</v>
+      <c r="B200" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>2</v>
+      <c r="B201" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>2</v>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>2</v>
+      <c r="B203" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>2</v>
+      <c r="B204" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>2</v>
+      <c r="B205" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>2</v>
+      <c r="B206" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>2</v>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>2</v>
+      <c r="B208" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>2</v>
+      <c r="B209" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>2</v>
+      <c r="B210" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>2</v>
+      <c r="B211" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>2</v>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>2</v>
+      <c r="B213" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>2</v>
+      <c r="B214" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>2</v>
+      <c r="B215" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>2</v>
+      <c r="B216" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>2</v>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>2</v>
+      <c r="B218" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>2</v>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>2</v>
+      <c r="B220" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>2</v>
+      <c r="B221" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>2</v>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>2</v>
+      <c r="B223" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>2</v>
+      <c r="B224" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>2</v>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>2</v>
+      <c r="B226" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>2</v>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>2</v>
+      <c r="B228" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>2</v>
+      <c r="B229" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>2</v>
+      <c r="B230" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>2</v>
+      <c r="B231" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>2</v>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>2</v>
+      <c r="B233" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>2</v>
+      <c r="B234" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>2</v>
+      <c r="B235" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>2</v>
+      <c r="B236" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>2</v>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>2</v>
+      <c r="B238" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>2</v>
+      <c r="B239" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>2</v>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>2</v>
+      <c r="B241" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>2</v>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>2</v>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>2</v>
+      <c r="B244" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>2</v>
+      <c r="B245" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
-        <v>2</v>
+      <c r="B246" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>2</v>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>2</v>
+      <c r="B248" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>2</v>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>2</v>
+      <c r="B250" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>2</v>
+      <c r="B251" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEE0803-A268-6648-9D91-EB77999559E5}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B190" sqref="B190:B251"/>
     </sheetView>
   </sheetViews>
@@ -2488,10 +2457,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2499,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2507,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2515,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2523,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2539,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2547,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2555,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2563,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2571,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2579,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2587,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2595,7 +2564,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2603,7 +2572,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2611,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2619,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2627,7 +2596,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2643,7 +2612,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +2620,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2667,7 +2636,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2675,7 +2644,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2683,7 +2652,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2691,7 +2660,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2699,7 +2668,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2707,7 +2676,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2715,7 +2684,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2723,7 +2692,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2731,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2739,7 +2708,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2747,7 +2716,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2755,7 +2724,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2763,7 +2732,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2771,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2779,7 +2748,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2787,7 +2756,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2795,7 +2764,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2803,7 +2772,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2811,7 +2780,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2819,7 +2788,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2827,7 +2796,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2835,7 +2804,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2843,7 +2812,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2851,7 +2820,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2859,7 +2828,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2867,7 +2836,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2883,7 +2852,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2891,7 +2860,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,7 +2868,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2907,7 +2876,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2915,7 +2884,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2923,7 +2892,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2931,7 +2900,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2939,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2947,7 +2916,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2955,7 +2924,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2963,7 +2932,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2971,7 +2940,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2979,7 +2948,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2987,7 +2956,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2995,7 +2964,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3003,7 +2972,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3011,7 +2980,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3019,7 +2988,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3027,7 +2996,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3035,7 +3004,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3043,7 +3012,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3051,7 +3020,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3059,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3067,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3075,7 +3044,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3083,7 +3052,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3091,7 +3060,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,7 +3068,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3107,7 +3076,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3123,7 +3092,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3131,7 +3100,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3139,7 +3108,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3147,7 +3116,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3155,7 +3124,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3163,7 +3132,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3171,7 +3140,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3179,7 +3148,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,7 +3156,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3195,7 +3164,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3203,7 +3172,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3211,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -3219,7 +3188,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3227,7 +3196,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3235,7 +3204,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3243,7 +3212,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3251,7 +3220,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3259,7 +3228,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3267,7 +3236,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3275,7 +3244,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3283,7 +3252,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3291,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3299,7 +3268,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3307,7 +3276,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3315,7 +3284,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3323,7 +3292,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3331,7 +3300,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3339,7 +3308,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3347,7 +3316,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3355,7 +3324,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3363,7 +3332,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3371,7 +3340,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3379,7 +3348,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3387,7 +3356,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3395,7 +3364,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3403,7 +3372,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3411,7 +3380,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3419,7 +3388,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3427,7 +3396,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -3435,7 +3404,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -3443,7 +3412,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3451,7 +3420,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3459,7 +3428,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3467,7 +3436,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3475,7 +3444,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -3483,7 +3452,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3491,7 +3460,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3499,7 +3468,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3507,7 +3476,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -3515,7 +3484,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -3523,7 +3492,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3531,7 +3500,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3539,7 +3508,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -3547,7 +3516,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -3555,7 +3524,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3563,7 +3532,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3571,7 +3540,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3579,7 +3548,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3587,7 +3556,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3595,7 +3564,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -3603,7 +3572,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -3611,7 +3580,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3619,7 +3588,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3627,7 +3596,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3635,7 +3604,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3643,7 +3612,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3651,7 +3620,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3659,7 +3628,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3667,7 +3636,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3675,7 +3644,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -3683,7 +3652,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -3691,7 +3660,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -3699,7 +3668,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -3707,7 +3676,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -3715,7 +3684,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -3723,7 +3692,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3731,7 +3700,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -3739,7 +3708,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3747,7 +3716,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -3755,7 +3724,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -3763,7 +3732,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -3771,7 +3740,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -3779,7 +3748,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -3787,7 +3756,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -3795,7 +3764,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -3803,7 +3772,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -3811,7 +3780,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -3819,7 +3788,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -3827,7 +3796,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3835,7 +3804,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -3843,7 +3812,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -3851,7 +3820,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -3859,7 +3828,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -3867,7 +3836,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -3875,7 +3844,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -3883,7 +3852,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -3891,7 +3860,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,7 +3868,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -3907,7 +3876,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -3915,7 +3884,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -3923,7 +3892,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -3931,7 +3900,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -3939,7 +3908,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -3947,7 +3916,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -3955,7 +3924,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -3963,7 +3932,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -3971,7 +3940,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -3979,7 +3948,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -3987,7 +3956,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -3995,7 +3964,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -4003,7 +3972,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -4011,7 +3980,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4019,7 +3988,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -4027,7 +3996,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -4035,7 +4004,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -4043,7 +4012,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -4051,7 +4020,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -4059,7 +4028,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -4067,7 +4036,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -4075,7 +4044,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -4083,7 +4052,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -4091,7 +4060,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -4099,7 +4068,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -4107,7 +4076,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -4115,7 +4084,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -4123,7 +4092,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -4131,7 +4100,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -4139,7 +4108,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -4147,7 +4116,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -4155,7 +4124,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -4163,7 +4132,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -4171,7 +4140,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -4179,7 +4148,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -4187,7 +4156,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -4195,7 +4164,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -4203,7 +4172,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -4211,7 +4180,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -4219,7 +4188,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -4227,7 +4196,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -4235,7 +4204,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -4243,7 +4212,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -4251,7 +4220,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -4259,7 +4228,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -4267,7 +4236,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -4275,7 +4244,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -4283,7 +4252,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -4291,7 +4260,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -4299,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -4307,7 +4276,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4315,7 +4284,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -4323,7 +4292,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -4331,7 +4300,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -4339,7 +4308,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -4347,7 +4316,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -4355,7 +4324,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -4363,7 +4332,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -4371,7 +4340,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -4379,7 +4348,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -4387,7 +4356,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -4395,7 +4364,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4403,7 +4372,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -4411,7 +4380,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4419,7 +4388,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -4427,7 +4396,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -4435,7 +4404,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -4443,7 +4412,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4451,7 +4420,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -4459,7 +4428,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -4467,7 +4436,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -4475,7 +4444,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -4483,7 +4452,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -4491,7 +4460,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,3062 +4479,2041 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761E668D-23B1-2843-AFD1-5C6EE8425DCC}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E250" sqref="E250:F252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">VLOOKUP(B2,lookup,2,FALSE)</f>
-        <v>2620</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C129" si="1">VLOOKUP(B66,lookup,2,FALSE)</f>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="1"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="1"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <f t="shared" ref="C130:C193" si="2">VLOOKUP(B130,lookup,2,FALSE)</f>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
-      </c>
-      <c r="C175">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="2"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="2"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="2"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194">
-        <f t="shared" ref="C194:C251" si="3">VLOOKUP(B194,lookup,2,FALSE)</f>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
-      </c>
-      <c r="C195">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>2</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>2</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>2</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
-      </c>
-      <c r="C221">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>2</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
-      </c>
-      <c r="C225">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
-      </c>
-      <c r="C228">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
-      </c>
-      <c r="C229">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
-      </c>
-      <c r="C230">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>2</v>
-      </c>
-      <c r="C233">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>2</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
-      </c>
-      <c r="C235">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
-      </c>
-      <c r="C238">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>2</v>
-      </c>
-      <c r="C239">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
-      </c>
-      <c r="C240">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>1</v>
-      </c>
-      <c r="C242">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
-      </c>
-      <c r="C243">
-        <f t="shared" si="3"/>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247">
-        <f t="shared" si="3"/>
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-      <c r="E250" t="s">
-        <v>2</v>
-      </c>
-      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250">
         <f>COUNTIF(B2:B251,"R")</f>
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="3"/>
-        <v>2570</v>
-      </c>
-      <c r="E251" t="s">
-        <v>1</v>
-      </c>
-      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251">
         <f>COUNTIF(B2:B251,"E")</f>
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E252" t="s">
-        <v>3</v>
-      </c>
-      <c r="F252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252">
         <f>COUNTIF(B2:B251,"M")</f>
         <v>55</v>
       </c>
